--- a/doc/外部設計/04_画面遷移図_GE☆RA .xlsx
+++ b/doc/外部設計/04_画面遷移図_GE☆RA .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C931A-32C4-465B-9D85-54D1D81EA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA82F71-B174-473E-AD35-A953D09C6873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,10 +253,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="グラフィックス 33">
+        <xdr:cNvPr id="3" name="グラフィックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52413E6A-9E19-D8D1-9223-60169DCBBABB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C2DDCA-C2E3-2727-9508-2E52000F5B14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計/04_画面遷移図_GE☆RA .xlsx
+++ b/doc/外部設計/04_画面遷移図_GE☆RA .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\フローチャート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA82F71-B174-473E-AD35-A953D09C6873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BDF2B1-F861-400F-BE4E-56755912F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,21 +242,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="グラフィックス 2">
+        <xdr:cNvPr id="4" name="グラフィックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C2DDCA-C2E3-2727-9508-2E52000F5B14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5730497-DAB9-70A8-758F-041905672A9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -278,7 +278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="1504950"/>
+          <a:off x="1028700" y="1333500"/>
           <a:ext cx="7620000" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,7 +962,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
